--- a/Templates/user.xlsx
+++ b/Templates/user.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\MyWork\Dotnet\TestOpenXml\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\MyWork\Dotnet\TestOpenXml\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -377,7 +377,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
